--- a/Win32/Binaries/Table/rhymeacupoint.xlsx
+++ b/Win32/Binaries/Table/rhymeacupoint.xlsx
@@ -20,7 +20,7 @@
   <externalReferences>
     <externalReference r:id="rId5"/>
   </externalReferences>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="180">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -345,73 +345,37 @@
     <t>10;59</t>
   </si>
   <si>
-    <t>10;65</t>
-  </si>
-  <si>
     <t>24;345</t>
   </si>
   <si>
-    <t>10;71</t>
-  </si>
-  <si>
     <t>24;379</t>
   </si>
   <si>
-    <t>10;77</t>
-  </si>
-  <si>
     <t>24;414</t>
   </si>
   <si>
-    <t>10;82</t>
-  </si>
-  <si>
     <t>24;448</t>
   </si>
   <si>
-    <t>10;88</t>
-  </si>
-  <si>
     <t>24;483</t>
   </si>
   <si>
-    <t>25;143</t>
-  </si>
-  <si>
-    <t>10;94</t>
-  </si>
-  <si>
     <t>24;517</t>
   </si>
   <si>
-    <t>10;100</t>
-  </si>
-  <si>
     <t>24;552</t>
   </si>
   <si>
-    <t>10;106</t>
-  </si>
-  <si>
     <t>24;586</t>
   </si>
   <si>
-    <t>10;112</t>
-  </si>
-  <si>
     <t>24;621</t>
   </si>
   <si>
     <t>23;217</t>
   </si>
   <si>
-    <t>10;118</t>
-  </si>
-  <si>
     <t>23;226</t>
-  </si>
-  <si>
-    <t>10;124</t>
   </si>
   <si>
     <t>24;655</t>
@@ -443,69 +407,36 @@
     <t>23;84</t>
   </si>
   <si>
-    <t>25;75</t>
-  </si>
-  <si>
     <t>23;92</t>
   </si>
   <si>
     <t>23;100</t>
   </si>
   <si>
-    <t>25;83</t>
-  </si>
-  <si>
     <t>23;109</t>
   </si>
   <si>
     <t>23;117</t>
   </si>
   <si>
-    <t>16;39</t>
-  </si>
-  <si>
-    <t>25;98</t>
-  </si>
-  <si>
     <t>23;125</t>
   </si>
   <si>
-    <t>16;45</t>
-  </si>
-  <si>
-    <t>25;105</t>
-  </si>
-  <si>
     <t>23;134</t>
   </si>
   <si>
-    <t>16;51</t>
-  </si>
-  <si>
     <t>23;142</t>
   </si>
   <si>
-    <t>25;113</t>
-  </si>
-  <si>
     <t>23;150</t>
   </si>
   <si>
-    <t>16;57</t>
-  </si>
-  <si>
     <t>23;159</t>
   </si>
   <si>
-    <t>25;120</t>
-  </si>
-  <si>
     <t>23;167</t>
   </si>
   <si>
-    <t>16;63</t>
-  </si>
-  <si>
     <t>23;176</t>
   </si>
   <si>
@@ -518,73 +449,148 @@
     <t>23;184</t>
   </si>
   <si>
-    <t>16;68</t>
-  </si>
-  <si>
     <t>23;192</t>
   </si>
   <si>
-    <t>25;150</t>
-  </si>
-  <si>
     <t>23;201</t>
   </si>
   <si>
     <t>16;77</t>
   </si>
   <si>
-    <t>25;158</t>
-  </si>
-  <si>
-    <t>25;165</t>
-  </si>
-  <si>
     <t>23;209</t>
   </si>
   <si>
-    <t>16;86</t>
-  </si>
-  <si>
-    <t>25;173</t>
-  </si>
-  <si>
-    <t>16;30</t>
-  </si>
-  <si>
-    <t>16;33</t>
-  </si>
-  <si>
-    <t>16;36</t>
-  </si>
-  <si>
-    <t>16;42</t>
-  </si>
-  <si>
-    <t>16;48</t>
-  </si>
-  <si>
-    <t>16;54</t>
-  </si>
-  <si>
-    <t>16;60</t>
-  </si>
-  <si>
-    <t>16;65</t>
-  </si>
-  <si>
-    <t>16;71</t>
-  </si>
-  <si>
-    <t>16;74</t>
-  </si>
-  <si>
-    <t>16;80</t>
-  </si>
-  <si>
-    <t>16;83</t>
-  </si>
-  <si>
-    <t>16;89</t>
+    <t>25;68</t>
+  </si>
+  <si>
+    <t>10;60</t>
+  </si>
+  <si>
+    <t>25;74</t>
+  </si>
+  <si>
+    <t>16;85</t>
+  </si>
+  <si>
+    <t>10;66</t>
+  </si>
+  <si>
+    <t>25;81</t>
+  </si>
+  <si>
+    <t>16;93</t>
+  </si>
+  <si>
+    <t>10;72</t>
+  </si>
+  <si>
+    <t>16;100</t>
+  </si>
+  <si>
+    <t>25;88</t>
+  </si>
+  <si>
+    <t>16;108</t>
+  </si>
+  <si>
+    <t>10;78</t>
+  </si>
+  <si>
+    <t>16;116</t>
+  </si>
+  <si>
+    <t>25;95</t>
+  </si>
+  <si>
+    <t>16;123</t>
+  </si>
+  <si>
+    <t>10;84</t>
+  </si>
+  <si>
+    <t>16;131</t>
+  </si>
+  <si>
+    <t>25;101</t>
+  </si>
+  <si>
+    <t>16;139</t>
+  </si>
+  <si>
+    <t>10;90</t>
+  </si>
+  <si>
+    <t>16;147</t>
+  </si>
+  <si>
+    <t>25;108</t>
+  </si>
+  <si>
+    <t>16;154</t>
+  </si>
+  <si>
+    <t>10;97</t>
+  </si>
+  <si>
+    <t>16;162</t>
+  </si>
+  <si>
+    <t>25;115</t>
+  </si>
+  <si>
+    <t>25;122</t>
+  </si>
+  <si>
+    <t>16;170</t>
+  </si>
+  <si>
+    <t>10;103</t>
+  </si>
+  <si>
+    <t>16;177</t>
+  </si>
+  <si>
+    <t>16;185</t>
+  </si>
+  <si>
+    <t>16;193</t>
+  </si>
+  <si>
+    <t>10;109</t>
+  </si>
+  <si>
+    <t>16;201</t>
+  </si>
+  <si>
+    <t>25;142</t>
+  </si>
+  <si>
+    <t>16;208</t>
+  </si>
+  <si>
+    <t>10;115</t>
+  </si>
+  <si>
+    <t>25;149</t>
+  </si>
+  <si>
+    <t>16;216</t>
+  </si>
+  <si>
+    <t>10;121</t>
+  </si>
+  <si>
+    <t>16;224</t>
+  </si>
+  <si>
+    <t>25;155</t>
+  </si>
+  <si>
+    <t>16;231</t>
+  </si>
+  <si>
+    <t>10;127</t>
   </si>
 </sst>
 </file>
@@ -837,7 +843,7 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="期望属性"/>
-      <sheetName val="Sheet1"/>
+      <sheetName val="各属性战力划分"/>
       <sheetName val="全系统性价比"/>
       <sheetName val="裸属性"/>
       <sheetName val="装备属性分配"/>
@@ -846,11 +852,7 @@
       <sheetName val="韵纹"/>
       <sheetName val="佣兵"/>
       <sheetName val="时装"/>
-      <sheetName val="非付费"/>
-      <sheetName val="大R"/>
-      <sheetName val="极端情况1宝石"/>
-      <sheetName val="极端情况2佣兵"/>
-      <sheetName val="Sheet2"/>
+      <sheetName val="佣兵组合"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -862,7 +864,7 @@
             <v>1</v>
           </cell>
           <cell r="G23">
-            <v>350000</v>
+            <v>70000</v>
           </cell>
         </row>
         <row r="24">
@@ -873,7 +875,7 @@
             <v>1</v>
           </cell>
           <cell r="G24">
-            <v>350000</v>
+            <v>70000</v>
           </cell>
         </row>
         <row r="25">
@@ -881,10 +883,10 @@
             <v>6</v>
           </cell>
           <cell r="F25">
-            <v>0.8</v>
+            <v>0.77</v>
           </cell>
           <cell r="G25">
-            <v>160000</v>
+            <v>30800</v>
           </cell>
         </row>
         <row r="26">
@@ -892,10 +894,10 @@
             <v>7</v>
           </cell>
           <cell r="F26">
-            <v>0.8</v>
+            <v>0.77</v>
           </cell>
           <cell r="G26">
-            <v>160000</v>
+            <v>30800</v>
           </cell>
         </row>
         <row r="27">
@@ -903,10 +905,10 @@
             <v>1</v>
           </cell>
           <cell r="F27">
-            <v>3.4000000000000002E-2</v>
+            <v>5.3999999999999999E-2</v>
           </cell>
           <cell r="G27">
-            <v>340000</v>
+            <v>108000</v>
           </cell>
         </row>
         <row r="28">
@@ -914,10 +916,10 @@
             <v>2</v>
           </cell>
           <cell r="F28">
-            <v>1</v>
+            <v>30</v>
           </cell>
           <cell r="G28">
-            <v>120</v>
+            <v>3600</v>
           </cell>
         </row>
         <row r="29">
@@ -925,10 +927,10 @@
             <v>3</v>
           </cell>
           <cell r="F29">
-            <v>4.5</v>
+            <v>0.5</v>
           </cell>
           <cell r="G29">
-            <v>270000</v>
+            <v>30000</v>
           </cell>
         </row>
         <row r="30">
@@ -936,10 +938,10 @@
             <v>16</v>
           </cell>
           <cell r="F30">
-            <v>12</v>
+            <v>2.5</v>
           </cell>
           <cell r="G30">
-            <v>24000</v>
+            <v>13500</v>
           </cell>
         </row>
         <row r="31">
@@ -947,10 +949,10 @@
             <v>10</v>
           </cell>
           <cell r="F31">
-            <v>10</v>
+            <v>2</v>
           </cell>
           <cell r="G31">
-            <v>40000</v>
+            <v>12000</v>
           </cell>
         </row>
         <row r="32">
@@ -958,7 +960,7 @@
             <v>9</v>
           </cell>
           <cell r="F32">
-            <v>10</v>
+            <v>2</v>
           </cell>
           <cell r="G32">
             <v>0</v>
@@ -969,10 +971,10 @@
             <v>23</v>
           </cell>
           <cell r="F33">
-            <v>5</v>
+            <v>1</v>
           </cell>
           <cell r="G33">
-            <v>125000</v>
+            <v>25000</v>
           </cell>
         </row>
         <row r="34">
@@ -980,10 +982,10 @@
             <v>25</v>
           </cell>
           <cell r="F34">
-            <v>3.5</v>
+            <v>0.7</v>
           </cell>
           <cell r="G34">
-            <v>52500</v>
+            <v>10500</v>
           </cell>
         </row>
         <row r="35">
@@ -991,10 +993,10 @@
             <v>24</v>
           </cell>
           <cell r="F35">
-            <v>5</v>
+            <v>1</v>
           </cell>
           <cell r="G35">
-            <v>50000</v>
+            <v>10000</v>
           </cell>
         </row>
         <row r="36">
@@ -1031,12 +1033,12 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
       <sheetData sheetId="7">
         <row r="85">
           <cell r="AD85">
@@ -1075,7 +1077,7 @@
             <v>0</v>
           </cell>
           <cell r="AH86">
-            <v>75</v>
+            <v>68</v>
           </cell>
           <cell r="AI86">
             <v>0</v>
@@ -1109,7 +1111,7 @@
         </row>
         <row r="88">
           <cell r="AD88">
-            <v>30</v>
+            <v>77</v>
           </cell>
           <cell r="AE88">
             <v>0</v>
@@ -1135,7 +1137,7 @@
             <v>0</v>
           </cell>
           <cell r="AE89">
-            <v>59</v>
+            <v>60</v>
           </cell>
           <cell r="AF89">
             <v>0</v>
@@ -1190,7 +1192,7 @@
             <v>0</v>
           </cell>
           <cell r="AH91">
-            <v>83</v>
+            <v>74</v>
           </cell>
           <cell r="AI91">
             <v>0</v>
@@ -1224,7 +1226,7 @@
         </row>
         <row r="93">
           <cell r="AD93">
-            <v>33</v>
+            <v>85</v>
           </cell>
           <cell r="AE93">
             <v>0</v>
@@ -1250,7 +1252,7 @@
             <v>0</v>
           </cell>
           <cell r="AE94">
-            <v>65</v>
+            <v>66</v>
           </cell>
           <cell r="AF94">
             <v>0</v>
@@ -1305,7 +1307,7 @@
             <v>0</v>
           </cell>
           <cell r="AH96">
-            <v>90</v>
+            <v>81</v>
           </cell>
           <cell r="AI96">
             <v>0</v>
@@ -1339,7 +1341,7 @@
         </row>
         <row r="98">
           <cell r="AD98">
-            <v>36</v>
+            <v>93</v>
           </cell>
           <cell r="AE98">
             <v>0</v>
@@ -1365,7 +1367,7 @@
             <v>0</v>
           </cell>
           <cell r="AE99">
-            <v>71</v>
+            <v>72</v>
           </cell>
           <cell r="AF99">
             <v>0</v>
@@ -1385,7 +1387,7 @@
         </row>
         <row r="100">
           <cell r="AD100">
-            <v>39</v>
+            <v>100</v>
           </cell>
           <cell r="AE100">
             <v>0</v>
@@ -1443,7 +1445,7 @@
             <v>0</v>
           </cell>
           <cell r="AH102">
-            <v>98</v>
+            <v>88</v>
           </cell>
           <cell r="AI102">
             <v>0</v>
@@ -1477,7 +1479,7 @@
         </row>
         <row r="104">
           <cell r="AD104">
-            <v>42</v>
+            <v>108</v>
           </cell>
           <cell r="AE104">
             <v>0</v>
@@ -1503,7 +1505,7 @@
             <v>0</v>
           </cell>
           <cell r="AE105">
-            <v>77</v>
+            <v>78</v>
           </cell>
           <cell r="AF105">
             <v>0</v>
@@ -1523,7 +1525,7 @@
         </row>
         <row r="106">
           <cell r="AD106">
-            <v>45</v>
+            <v>116</v>
           </cell>
           <cell r="AE106">
             <v>0</v>
@@ -1581,7 +1583,7 @@
             <v>0</v>
           </cell>
           <cell r="AH108">
-            <v>105</v>
+            <v>95</v>
           </cell>
           <cell r="AI108">
             <v>0</v>
@@ -1615,7 +1617,7 @@
         </row>
         <row r="110">
           <cell r="AD110">
-            <v>48</v>
+            <v>123</v>
           </cell>
           <cell r="AE110">
             <v>0</v>
@@ -1641,7 +1643,7 @@
             <v>0</v>
           </cell>
           <cell r="AE111">
-            <v>82</v>
+            <v>84</v>
           </cell>
           <cell r="AF111">
             <v>0</v>
@@ -1661,7 +1663,7 @@
         </row>
         <row r="112">
           <cell r="AD112">
-            <v>51</v>
+            <v>131</v>
           </cell>
           <cell r="AE112">
             <v>0</v>
@@ -1742,7 +1744,7 @@
             <v>0</v>
           </cell>
           <cell r="AH115">
-            <v>113</v>
+            <v>101</v>
           </cell>
           <cell r="AI115">
             <v>0</v>
@@ -1776,7 +1778,7 @@
         </row>
         <row r="117">
           <cell r="AD117">
-            <v>54</v>
+            <v>139</v>
           </cell>
           <cell r="AE117">
             <v>0</v>
@@ -1802,7 +1804,7 @@
             <v>0</v>
           </cell>
           <cell r="AE118">
-            <v>88</v>
+            <v>90</v>
           </cell>
           <cell r="AF118">
             <v>0</v>
@@ -1822,7 +1824,7 @@
         </row>
         <row r="119">
           <cell r="AD119">
-            <v>57</v>
+            <v>147</v>
           </cell>
           <cell r="AE119">
             <v>0</v>
@@ -1903,7 +1905,7 @@
             <v>0</v>
           </cell>
           <cell r="AH122">
-            <v>120</v>
+            <v>108</v>
           </cell>
           <cell r="AI122">
             <v>0</v>
@@ -1937,7 +1939,7 @@
         </row>
         <row r="124">
           <cell r="AD124">
-            <v>60</v>
+            <v>154</v>
           </cell>
           <cell r="AE124">
             <v>0</v>
@@ -1963,7 +1965,7 @@
             <v>0</v>
           </cell>
           <cell r="AE125">
-            <v>94</v>
+            <v>97</v>
           </cell>
           <cell r="AF125">
             <v>0</v>
@@ -1983,7 +1985,7 @@
         </row>
         <row r="126">
           <cell r="AD126">
-            <v>63</v>
+            <v>162</v>
           </cell>
           <cell r="AE126">
             <v>0</v>
@@ -2041,7 +2043,7 @@
             <v>0</v>
           </cell>
           <cell r="AH128">
-            <v>128</v>
+            <v>115</v>
           </cell>
           <cell r="AI128">
             <v>0</v>
@@ -2087,7 +2089,7 @@
             <v>0</v>
           </cell>
           <cell r="AH130">
-            <v>135</v>
+            <v>122</v>
           </cell>
           <cell r="AI130">
             <v>0</v>
@@ -2121,7 +2123,7 @@
         </row>
         <row r="132">
           <cell r="AD132">
-            <v>65</v>
+            <v>170</v>
           </cell>
           <cell r="AE132">
             <v>0</v>
@@ -2147,7 +2149,7 @@
             <v>0</v>
           </cell>
           <cell r="AE133">
-            <v>100</v>
+            <v>103</v>
           </cell>
           <cell r="AF133">
             <v>0</v>
@@ -2167,7 +2169,7 @@
         </row>
         <row r="134">
           <cell r="AD134">
-            <v>68</v>
+            <v>177</v>
           </cell>
           <cell r="AE134">
             <v>0</v>
@@ -2225,7 +2227,7 @@
             <v>0</v>
           </cell>
           <cell r="AH136">
-            <v>143</v>
+            <v>128</v>
           </cell>
           <cell r="AI136">
             <v>0</v>
@@ -2236,7 +2238,7 @@
         </row>
         <row r="137">
           <cell r="AD137">
-            <v>71</v>
+            <v>185</v>
           </cell>
           <cell r="AE137">
             <v>0</v>
@@ -2294,7 +2296,7 @@
             <v>0</v>
           </cell>
           <cell r="AH139">
-            <v>150</v>
+            <v>135</v>
           </cell>
           <cell r="AI139">
             <v>0</v>
@@ -2328,7 +2330,7 @@
         </row>
         <row r="141">
           <cell r="AD141">
-            <v>74</v>
+            <v>193</v>
           </cell>
           <cell r="AE141">
             <v>0</v>
@@ -2354,7 +2356,7 @@
             <v>0</v>
           </cell>
           <cell r="AE142">
-            <v>106</v>
+            <v>109</v>
           </cell>
           <cell r="AF142">
             <v>0</v>
@@ -2374,7 +2376,7 @@
         </row>
         <row r="143">
           <cell r="AD143">
-            <v>77</v>
+            <v>201</v>
           </cell>
           <cell r="AE143">
             <v>0</v>
@@ -2432,7 +2434,7 @@
             <v>0</v>
           </cell>
           <cell r="AH145">
-            <v>158</v>
+            <v>142</v>
           </cell>
           <cell r="AI145">
             <v>0</v>
@@ -2443,7 +2445,7 @@
         </row>
         <row r="146">
           <cell r="AD146">
-            <v>80</v>
+            <v>208</v>
           </cell>
           <cell r="AE146">
             <v>0</v>
@@ -2469,7 +2471,7 @@
             <v>0</v>
           </cell>
           <cell r="AE147">
-            <v>112</v>
+            <v>115</v>
           </cell>
           <cell r="AF147">
             <v>0</v>
@@ -2524,7 +2526,7 @@
             <v>0</v>
           </cell>
           <cell r="AH149">
-            <v>165</v>
+            <v>149</v>
           </cell>
           <cell r="AI149">
             <v>0</v>
@@ -2558,7 +2560,7 @@
         </row>
         <row r="151">
           <cell r="AD151">
-            <v>83</v>
+            <v>216</v>
           </cell>
           <cell r="AE151">
             <v>0</v>
@@ -2584,7 +2586,7 @@
             <v>0</v>
           </cell>
           <cell r="AE152">
-            <v>118</v>
+            <v>121</v>
           </cell>
           <cell r="AF152">
             <v>0</v>
@@ -2604,7 +2606,7 @@
         </row>
         <row r="153">
           <cell r="AD153">
-            <v>86</v>
+            <v>224</v>
           </cell>
           <cell r="AE153">
             <v>0</v>
@@ -2662,7 +2664,7 @@
             <v>0</v>
           </cell>
           <cell r="AH155">
-            <v>173</v>
+            <v>155</v>
           </cell>
           <cell r="AI155">
             <v>0</v>
@@ -2673,7 +2675,7 @@
         </row>
         <row r="156">
           <cell r="AD156">
-            <v>89</v>
+            <v>231</v>
           </cell>
           <cell r="AE156">
             <v>0</v>
@@ -2699,7 +2701,7 @@
             <v>0</v>
           </cell>
           <cell r="AE157">
-            <v>124</v>
+            <v>127</v>
           </cell>
           <cell r="AF157">
             <v>0</v>
@@ -2764,13 +2766,9 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3101,7 +3099,7 @@
   <dimension ref="A1:L77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L3:L6"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -3210,10 +3208,10 @@
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="L3">
-        <v>420</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -3236,10 +3234,10 @@
         <v>3</v>
       </c>
       <c r="G4" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="L4">
-        <v>263</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -3262,10 +3260,10 @@
         <v>5</v>
       </c>
       <c r="G5" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="L5">
-        <v>460</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -3288,10 +3286,10 @@
         <v>7</v>
       </c>
       <c r="G6" t="s">
-        <v>165</v>
+        <v>134</v>
       </c>
       <c r="L6">
-        <v>360</v>
+        <v>193</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -3314,10 +3312,10 @@
         <v>9</v>
       </c>
       <c r="G7" t="s">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="L7">
-        <v>590</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -3340,10 +3338,10 @@
         <v>2</v>
       </c>
       <c r="G8" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="L8">
-        <v>500</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -3367,10 +3365,10 @@
         <v>5</v>
       </c>
       <c r="G9" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="L9">
-        <v>291</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -3394,10 +3392,10 @@
         <v>8</v>
       </c>
       <c r="G10" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="L10">
-        <v>545</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -3421,10 +3419,10 @@
         <v>11</v>
       </c>
       <c r="G11" t="s">
-        <v>166</v>
+        <v>139</v>
       </c>
       <c r="L11">
-        <v>396</v>
+        <v>213</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -3448,10 +3446,10 @@
         <v>14</v>
       </c>
       <c r="G12" t="s">
-        <v>99</v>
+        <v>140</v>
       </c>
       <c r="L12">
-        <v>650</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -3474,10 +3472,10 @@
         <v>3</v>
       </c>
       <c r="G13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L13">
-        <v>1725</v>
+        <v>345</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -3501,10 +3499,10 @@
         <v>7</v>
       </c>
       <c r="G14" t="s">
-        <v>96</v>
+        <v>141</v>
       </c>
       <c r="L14">
-        <v>315</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -3528,10 +3526,10 @@
         <v>11</v>
       </c>
       <c r="G15" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="L15">
-        <v>585</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -3555,10 +3553,10 @@
         <v>15</v>
       </c>
       <c r="G16" t="s">
-        <v>167</v>
+        <v>142</v>
       </c>
       <c r="L16">
-        <v>432</v>
+        <v>233</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -3582,10 +3580,10 @@
         <v>19</v>
       </c>
       <c r="G17" t="s">
-        <v>101</v>
+        <v>143</v>
       </c>
       <c r="L17">
-        <v>710</v>
+        <v>144</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -3609,10 +3607,10 @@
         <v>23</v>
       </c>
       <c r="G18" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="L18">
-        <v>468</v>
+        <v>250</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -3635,10 +3633,10 @@
         <v>3</v>
       </c>
       <c r="G19" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L19">
-        <v>1895</v>
+        <v>379</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -3662,10 +3660,10 @@
         <v>8</v>
       </c>
       <c r="G20" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="L20">
-        <v>343</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -3689,10 +3687,10 @@
         <v>13</v>
       </c>
       <c r="G21" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="L21">
-        <v>625</v>
+        <v>125</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -3716,10 +3714,10 @@
         <v>18</v>
       </c>
       <c r="G22" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="L22">
-        <v>504</v>
+        <v>270</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -3743,10 +3741,10 @@
         <v>23</v>
       </c>
       <c r="G23" t="s">
-        <v>103</v>
+        <v>147</v>
       </c>
       <c r="L23">
-        <v>770</v>
+        <v>156</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -3770,10 +3768,10 @@
         <v>28</v>
       </c>
       <c r="G24" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="L24">
-        <v>540</v>
+        <v>290</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -3796,10 +3794,10 @@
         <v>4</v>
       </c>
       <c r="G25" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="L25">
-        <v>2070</v>
+        <v>414</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -3823,10 +3821,10 @@
         <v>10</v>
       </c>
       <c r="G26" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="L26">
-        <v>368</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -3850,10 +3848,10 @@
         <v>16</v>
       </c>
       <c r="G27" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="L27">
-        <v>670</v>
+        <v>134</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -3877,10 +3875,10 @@
         <v>22</v>
       </c>
       <c r="G28" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="L28">
-        <v>576</v>
+        <v>308</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -3904,10 +3902,10 @@
         <v>28</v>
       </c>
       <c r="G29" t="s">
-        <v>105</v>
+        <v>151</v>
       </c>
       <c r="L29">
-        <v>820</v>
+        <v>168</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -3931,10 +3929,10 @@
         <v>34</v>
       </c>
       <c r="G30" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="L30">
-        <v>612</v>
+        <v>328</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -3958,10 +3956,10 @@
         <v>40</v>
       </c>
       <c r="G31" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="L31">
-        <v>710</v>
+        <v>142</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -3984,10 +3982,10 @@
         <v>5</v>
       </c>
       <c r="G32" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="L32">
-        <v>2240</v>
+        <v>448</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -4011,10 +4009,10 @@
         <v>12</v>
       </c>
       <c r="G33" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="L33">
-        <v>396</v>
+        <v>71</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -4038,10 +4036,10 @@
         <v>19</v>
       </c>
       <c r="G34" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="L34">
-        <v>750</v>
+        <v>150</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -4065,10 +4063,10 @@
         <v>26</v>
       </c>
       <c r="G35" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="L35">
-        <v>648</v>
+        <v>348</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -4092,10 +4090,10 @@
         <v>33</v>
       </c>
       <c r="G36" t="s">
-        <v>107</v>
+        <v>155</v>
       </c>
       <c r="L36">
-        <v>880</v>
+        <v>180</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -4119,10 +4117,10 @@
         <v>40</v>
       </c>
       <c r="G37" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="L37">
-        <v>684</v>
+        <v>368</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -4146,10 +4144,10 @@
         <v>47</v>
       </c>
       <c r="G38" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="L38">
-        <v>795</v>
+        <v>159</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -4172,10 +4170,10 @@
         <v>6</v>
       </c>
       <c r="G39" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="L39">
-        <v>2415</v>
+        <v>483</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -4199,10 +4197,10 @@
         <v>14</v>
       </c>
       <c r="G40" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="L40">
-        <v>420</v>
+        <v>76</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -4226,10 +4224,10 @@
         <v>22</v>
       </c>
       <c r="G41" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="L41">
-        <v>835</v>
+        <v>167</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -4253,10 +4251,10 @@
         <v>30</v>
       </c>
       <c r="G42" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="L42">
-        <v>720</v>
+        <v>385</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -4280,10 +4278,10 @@
         <v>38</v>
       </c>
       <c r="G43" t="s">
-        <v>110</v>
+        <v>159</v>
       </c>
       <c r="L43">
-        <v>940</v>
+        <v>194</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -4307,10 +4305,10 @@
         <v>46</v>
       </c>
       <c r="G44" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="L44">
-        <v>756</v>
+        <v>405</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -4334,10 +4332,10 @@
         <v>54</v>
       </c>
       <c r="G45" t="s">
-        <v>151</v>
+        <v>128</v>
       </c>
       <c r="L45">
-        <v>880</v>
+        <v>176</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -4361,10 +4359,10 @@
         <v>62</v>
       </c>
       <c r="G46" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="L46">
-        <v>448</v>
+        <v>81</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -4387,10 +4385,10 @@
         <v>7</v>
       </c>
       <c r="G47" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="L47">
-        <v>2585</v>
+        <v>517</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -4414,10 +4412,10 @@
         <v>16</v>
       </c>
       <c r="G48" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="L48">
-        <v>473</v>
+        <v>85</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -4441,10 +4439,10 @@
         <v>25</v>
       </c>
       <c r="G49" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="L49">
-        <v>920</v>
+        <v>184</v>
       </c>
     </row>
     <row r="50" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -4468,10 +4466,10 @@
         <v>34</v>
       </c>
       <c r="G50" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="L50">
-        <v>780</v>
+        <v>425</v>
       </c>
     </row>
     <row r="51" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -4495,10 +4493,10 @@
         <v>43</v>
       </c>
       <c r="G51" t="s">
-        <v>112</v>
+        <v>164</v>
       </c>
       <c r="L51">
-        <v>1000</v>
+        <v>206</v>
       </c>
     </row>
     <row r="52" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -4522,10 +4520,10 @@
         <v>52</v>
       </c>
       <c r="G52" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="L52">
-        <v>816</v>
+        <v>443</v>
       </c>
     </row>
     <row r="53" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -4549,10 +4547,10 @@
         <v>61</v>
       </c>
       <c r="G53" t="s">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="L53">
-        <v>960</v>
+        <v>192</v>
       </c>
     </row>
     <row r="54" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -4576,10 +4574,10 @@
         <v>70</v>
       </c>
       <c r="G54" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="L54">
-        <v>501</v>
+        <v>90</v>
       </c>
     </row>
     <row r="55" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -4603,10 +4601,10 @@
         <v>79</v>
       </c>
       <c r="G55" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="L55">
-        <v>852</v>
+        <v>463</v>
       </c>
     </row>
     <row r="56" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -4629,10 +4627,10 @@
         <v>8</v>
       </c>
       <c r="G56" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="L56">
-        <v>2760</v>
+        <v>552</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -4656,10 +4654,10 @@
         <v>18</v>
       </c>
       <c r="G57" t="s">
-        <v>157</v>
+        <v>130</v>
       </c>
       <c r="L57">
-        <v>525</v>
+        <v>95</v>
       </c>
     </row>
     <row r="58" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -4683,10 +4681,10 @@
         <v>28</v>
       </c>
       <c r="G58" t="s">
-        <v>158</v>
+        <v>133</v>
       </c>
       <c r="L58">
-        <v>1005</v>
+        <v>201</v>
       </c>
     </row>
     <row r="59" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -4710,10 +4708,10 @@
         <v>38</v>
       </c>
       <c r="G59" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="L59">
-        <v>888</v>
+        <v>483</v>
       </c>
     </row>
     <row r="60" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -4737,10 +4735,10 @@
         <v>48</v>
       </c>
       <c r="G60" t="s">
-        <v>114</v>
+        <v>168</v>
       </c>
       <c r="L60">
-        <v>1060</v>
+        <v>218</v>
       </c>
     </row>
     <row r="61" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -4764,10 +4762,10 @@
         <v>58</v>
       </c>
       <c r="G61" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="L61">
-        <v>924</v>
+        <v>503</v>
       </c>
     </row>
     <row r="62" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -4791,10 +4789,10 @@
         <v>68</v>
       </c>
       <c r="G62" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="L62">
-        <v>2930</v>
+        <v>586</v>
       </c>
     </row>
     <row r="63" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -4818,10 +4816,10 @@
         <v>78</v>
       </c>
       <c r="G63" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="L63">
-        <v>553</v>
+        <v>99</v>
       </c>
     </row>
     <row r="64" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -4845,10 +4843,10 @@
         <v>88</v>
       </c>
       <c r="G64" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="L64">
-        <v>960</v>
+        <v>520</v>
       </c>
     </row>
     <row r="65" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -4872,10 +4870,10 @@
         <v>98</v>
       </c>
       <c r="G65" t="s">
-        <v>116</v>
+        <v>172</v>
       </c>
       <c r="L65">
-        <v>1120</v>
+        <v>230</v>
       </c>
     </row>
     <row r="66" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -4898,10 +4896,10 @@
         <v>9</v>
       </c>
       <c r="G66" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="L66">
-        <v>3105</v>
+        <v>621</v>
       </c>
     </row>
     <row r="67" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -4925,10 +4923,10 @@
         <v>20</v>
       </c>
       <c r="G67" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="L67">
-        <v>578</v>
+        <v>104</v>
       </c>
     </row>
     <row r="68" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -4952,10 +4950,10 @@
         <v>31</v>
       </c>
       <c r="G68" t="s">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="L68">
-        <v>1045</v>
+        <v>209</v>
       </c>
     </row>
     <row r="69" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -4979,10 +4977,10 @@
         <v>42</v>
       </c>
       <c r="G69" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="L69">
-        <v>996</v>
+        <v>540</v>
       </c>
     </row>
     <row r="70" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -5006,10 +5004,10 @@
         <v>53</v>
       </c>
       <c r="G70" t="s">
-        <v>119</v>
+        <v>175</v>
       </c>
       <c r="L70">
-        <v>1180</v>
+        <v>242</v>
       </c>
     </row>
     <row r="71" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -5033,10 +5031,10 @@
         <v>64</v>
       </c>
       <c r="G71" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="L71">
-        <v>1032</v>
+        <v>560</v>
       </c>
     </row>
     <row r="72" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -5060,10 +5058,10 @@
         <v>75</v>
       </c>
       <c r="G72" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="L72">
-        <v>1085</v>
+        <v>217</v>
       </c>
     </row>
     <row r="73" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -5087,10 +5085,10 @@
         <v>86</v>
       </c>
       <c r="G73" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="L73">
-        <v>606</v>
+        <v>109</v>
       </c>
     </row>
     <row r="74" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -5114,10 +5112,10 @@
         <v>97</v>
       </c>
       <c r="G74" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L74">
-        <v>1068</v>
+        <v>578</v>
       </c>
     </row>
     <row r="75" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -5141,10 +5139,10 @@
         <v>108</v>
       </c>
       <c r="G75" t="s">
-        <v>121</v>
+        <v>179</v>
       </c>
       <c r="L75">
-        <v>1240</v>
+        <v>254</v>
       </c>
     </row>
     <row r="76" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -5168,10 +5166,10 @@
         <v>119</v>
       </c>
       <c r="G76" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="L76">
-        <v>1130</v>
+        <v>226</v>
       </c>
     </row>
     <row r="77" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -5195,10 +5193,10 @@
         <v>130</v>
       </c>
       <c r="G77" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="L77">
-        <v>3275</v>
+        <v>655</v>
       </c>
     </row>
   </sheetData>
@@ -5508,7 +5506,7 @@
       <c r="O3" s="5"/>
       <c r="P3" s="6">
         <f>ROUND(SUM([1]韵纹!AD85:AI85)*VLOOKUP(SUM([1]韵纹!AJ85:AO85),[1]期望属性!$E$23:$G$38,2,0),0)</f>
-        <v>420</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:75" ht="15" x14ac:dyDescent="0.2">
@@ -5539,7 +5537,7 @@
       </c>
       <c r="K4" s="7" t="str">
         <f>SUM([1]韵纹!AJ86:AO86)&amp;";"&amp;SUM([1]韵纹!AD86:AI86)</f>
-        <v>25;75</v>
+        <v>25;68</v>
       </c>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
@@ -5547,7 +5545,7 @@
       <c r="O4" s="3"/>
       <c r="P4" s="8">
         <f>ROUND(SUM([1]韵纹!AD86:AI86)*VLOOKUP(SUM([1]韵纹!AJ86:AO86),[1]期望属性!$E$23:$G$38,2,0),0)</f>
-        <v>263</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:75" ht="15" x14ac:dyDescent="0.2">
@@ -5586,7 +5584,7 @@
       <c r="O5" s="3"/>
       <c r="P5" s="8">
         <f>ROUND(SUM([1]韵纹!AD87:AI87)*VLOOKUP(SUM([1]韵纹!AJ87:AO87),[1]期望属性!$E$23:$G$38,2,0),0)</f>
-        <v>460</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:75" ht="15" x14ac:dyDescent="0.2">
@@ -5620,7 +5618,7 @@
       </c>
       <c r="K6" s="7" t="str">
         <f>SUM([1]韵纹!AJ88:AO88)&amp;";"&amp;SUM([1]韵纹!AD88:AI88)</f>
-        <v>16;30</v>
+        <v>16;77</v>
       </c>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
@@ -5628,7 +5626,7 @@
       <c r="O6" s="3"/>
       <c r="P6" s="8">
         <f>ROUND(SUM([1]韵纹!AD88:AI88)*VLOOKUP(SUM([1]韵纹!AJ88:AO88),[1]期望属性!$E$23:$G$38,2,0),0)</f>
-        <v>360</v>
+        <v>193</v>
       </c>
     </row>
     <row r="7" spans="1:75" ht="15" x14ac:dyDescent="0.2">
@@ -5662,7 +5660,7 @@
       </c>
       <c r="K7" s="7" t="str">
         <f>SUM([1]韵纹!AJ89:AO89)&amp;";"&amp;SUM([1]韵纹!AD89:AI89)</f>
-        <v>10;59</v>
+        <v>10;60</v>
       </c>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
@@ -5670,14 +5668,14 @@
       <c r="O7" s="3"/>
       <c r="P7" s="8">
         <f>ROUND(SUM([1]韵纹!AD89:AI89)*VLOOKUP(SUM([1]韵纹!AJ89:AO89),[1]期望属性!$E$23:$G$38,2,0),0)</f>
-        <v>590</v>
+        <v>120</v>
       </c>
       <c r="Q7">
         <v>1</v>
       </c>
       <c r="R7">
         <f>SUM(P$3:P7)</f>
-        <v>2093</v>
+        <v>537</v>
       </c>
     </row>
     <row r="8" spans="1:75" ht="15" x14ac:dyDescent="0.2">
@@ -5719,7 +5717,7 @@
       <c r="O8" s="3"/>
       <c r="P8" s="8">
         <f>ROUND(SUM([1]韵纹!AD90:AI90)*VLOOKUP(SUM([1]韵纹!AJ90:AO90),[1]期望属性!$E$23:$G$38,2,0),0)</f>
-        <v>500</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:75" ht="15" x14ac:dyDescent="0.2">
@@ -5754,7 +5752,7 @@
       </c>
       <c r="K9" s="7" t="str">
         <f>SUM([1]韵纹!AJ91:AO91)&amp;";"&amp;SUM([1]韵纹!AD91:AI91)</f>
-        <v>25;83</v>
+        <v>25;74</v>
       </c>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
@@ -5762,7 +5760,7 @@
       <c r="O9" s="3"/>
       <c r="P9" s="8">
         <f>ROUND(SUM([1]韵纹!AD91:AI91)*VLOOKUP(SUM([1]韵纹!AJ91:AO91),[1]期望属性!$E$23:$G$38,2,0),0)</f>
-        <v>291</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:75" ht="15" x14ac:dyDescent="0.2">
@@ -5805,7 +5803,7 @@
       <c r="O10" s="3"/>
       <c r="P10" s="8">
         <f>ROUND(SUM([1]韵纹!AD92:AI92)*VLOOKUP(SUM([1]韵纹!AJ92:AO92),[1]期望属性!$E$23:$G$38,2,0),0)</f>
-        <v>545</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:75" ht="15" x14ac:dyDescent="0.2">
@@ -5840,7 +5838,7 @@
       </c>
       <c r="K11" s="7" t="str">
         <f>SUM([1]韵纹!AJ93:AO93)&amp;";"&amp;SUM([1]韵纹!AD93:AI93)</f>
-        <v>16;33</v>
+        <v>16;85</v>
       </c>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
@@ -5848,7 +5846,7 @@
       <c r="O11" s="3"/>
       <c r="P11" s="8">
         <f>ROUND(SUM([1]韵纹!AD93:AI93)*VLOOKUP(SUM([1]韵纹!AJ93:AO93),[1]期望属性!$E$23:$G$38,2,0),0)</f>
-        <v>396</v>
+        <v>213</v>
       </c>
     </row>
     <row r="12" spans="1:75" ht="15" x14ac:dyDescent="0.2">
@@ -5883,7 +5881,7 @@
       </c>
       <c r="K12" s="7" t="str">
         <f>SUM([1]韵纹!AJ94:AO94)&amp;";"&amp;SUM([1]韵纹!AD94:AI94)</f>
-        <v>10;65</v>
+        <v>10;66</v>
       </c>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
@@ -5891,14 +5889,14 @@
       <c r="O12" s="3"/>
       <c r="P12" s="8">
         <f>ROUND(SUM([1]韵纹!AD94:AI94)*VLOOKUP(SUM([1]韵纹!AJ94:AO94),[1]期望属性!$E$23:$G$38,2,0),0)</f>
-        <v>650</v>
+        <v>132</v>
       </c>
       <c r="Q12">
         <v>2</v>
       </c>
       <c r="R12">
         <f>SUM(P$3:P12)</f>
-        <v>4475</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="13" spans="1:75" ht="15" x14ac:dyDescent="0.2">
@@ -5940,7 +5938,7 @@
       <c r="O13" s="3"/>
       <c r="P13" s="8">
         <f>ROUND(SUM([1]韵纹!AD95:AI95)*VLOOKUP(SUM([1]韵纹!AJ95:AO95),[1]期望属性!$E$23:$G$38,2,0),0)</f>
-        <v>1725</v>
+        <v>345</v>
       </c>
     </row>
     <row r="14" spans="1:75" ht="15" x14ac:dyDescent="0.2">
@@ -5975,7 +5973,7 @@
       </c>
       <c r="K14" s="7" t="str">
         <f>SUM([1]韵纹!AJ96:AO96)&amp;";"&amp;SUM([1]韵纹!AD96:AI96)</f>
-        <v>25;90</v>
+        <v>25;81</v>
       </c>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
@@ -5983,7 +5981,7 @@
       <c r="O14" s="3"/>
       <c r="P14" s="8">
         <f>ROUND(SUM([1]韵纹!AD96:AI96)*VLOOKUP(SUM([1]韵纹!AJ96:AO96),[1]期望属性!$E$23:$G$38,2,0),0)</f>
-        <v>315</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:75" ht="15" x14ac:dyDescent="0.2">
@@ -6026,7 +6024,7 @@
       <c r="O15" s="3"/>
       <c r="P15" s="8">
         <f>ROUND(SUM([1]韵纹!AD97:AI97)*VLOOKUP(SUM([1]韵纹!AJ97:AO97),[1]期望属性!$E$23:$G$38,2,0),0)</f>
-        <v>585</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:75" ht="15" x14ac:dyDescent="0.2">
@@ -6061,7 +6059,7 @@
       </c>
       <c r="K16" s="7" t="str">
         <f>SUM([1]韵纹!AJ98:AO98)&amp;";"&amp;SUM([1]韵纹!AD98:AI98)</f>
-        <v>16;36</v>
+        <v>16;93</v>
       </c>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
@@ -6069,7 +6067,7 @@
       <c r="O16" s="3"/>
       <c r="P16" s="8">
         <f>ROUND(SUM([1]韵纹!AD98:AI98)*VLOOKUP(SUM([1]韵纹!AJ98:AO98),[1]期望属性!$E$23:$G$38,2,0),0)</f>
-        <v>432</v>
+        <v>233</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="15" x14ac:dyDescent="0.2">
@@ -6104,7 +6102,7 @@
       </c>
       <c r="K17" s="7" t="str">
         <f>SUM([1]韵纹!AJ99:AO99)&amp;";"&amp;SUM([1]韵纹!AD99:AI99)</f>
-        <v>10;71</v>
+        <v>10;72</v>
       </c>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
@@ -6112,7 +6110,7 @@
       <c r="O17" s="3"/>
       <c r="P17" s="8">
         <f>ROUND(SUM([1]韵纹!AD99:AI99)*VLOOKUP(SUM([1]韵纹!AJ99:AO99),[1]期望属性!$E$23:$G$38,2,0),0)</f>
-        <v>710</v>
+        <v>144</v>
       </c>
     </row>
     <row r="18" spans="1:18" ht="15" x14ac:dyDescent="0.2">
@@ -6147,7 +6145,7 @@
       </c>
       <c r="K18" s="7" t="str">
         <f>SUM([1]韵纹!AJ100:AO100)&amp;";"&amp;SUM([1]韵纹!AD100:AI100)</f>
-        <v>16;39</v>
+        <v>16;100</v>
       </c>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
@@ -6155,14 +6153,14 @@
       <c r="O18" s="3"/>
       <c r="P18" s="8">
         <f>ROUND(SUM([1]韵纹!AD100:AI100)*VLOOKUP(SUM([1]韵纹!AJ100:AO100),[1]期望属性!$E$23:$G$38,2,0),0)</f>
-        <v>468</v>
+        <v>250</v>
       </c>
       <c r="Q18">
         <v>3</v>
       </c>
       <c r="R18">
         <f>SUM(P$3:P18)</f>
-        <v>8710</v>
+        <v>2289</v>
       </c>
     </row>
     <row r="19" spans="1:18" ht="15" x14ac:dyDescent="0.2">
@@ -6204,7 +6202,7 @@
       <c r="O19" s="3"/>
       <c r="P19" s="8">
         <f>ROUND(SUM([1]韵纹!AD101:AI101)*VLOOKUP(SUM([1]韵纹!AJ101:AO101),[1]期望属性!$E$23:$G$38,2,0),0)</f>
-        <v>1895</v>
+        <v>379</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="15" x14ac:dyDescent="0.2">
@@ -6239,7 +6237,7 @@
       </c>
       <c r="K20" s="7" t="str">
         <f>SUM([1]韵纹!AJ102:AO102)&amp;";"&amp;SUM([1]韵纹!AD102:AI102)</f>
-        <v>25;98</v>
+        <v>25;88</v>
       </c>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
@@ -6247,7 +6245,7 @@
       <c r="O20" s="3"/>
       <c r="P20" s="8">
         <f>ROUND(SUM([1]韵纹!AD102:AI102)*VLOOKUP(SUM([1]韵纹!AJ102:AO102),[1]期望属性!$E$23:$G$38,2,0),0)</f>
-        <v>343</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:18" ht="15" x14ac:dyDescent="0.2">
@@ -6290,7 +6288,7 @@
       <c r="O21" s="3"/>
       <c r="P21" s="8">
         <f>ROUND(SUM([1]韵纹!AD103:AI103)*VLOOKUP(SUM([1]韵纹!AJ103:AO103),[1]期望属性!$E$23:$G$38,2,0),0)</f>
-        <v>625</v>
+        <v>125</v>
       </c>
     </row>
     <row r="22" spans="1:18" ht="15" x14ac:dyDescent="0.2">
@@ -6325,7 +6323,7 @@
       </c>
       <c r="K22" s="7" t="str">
         <f>SUM([1]韵纹!AJ104:AO104)&amp;";"&amp;SUM([1]韵纹!AD104:AI104)</f>
-        <v>16;42</v>
+        <v>16;108</v>
       </c>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
@@ -6333,7 +6331,7 @@
       <c r="O22" s="3"/>
       <c r="P22" s="8">
         <f>ROUND(SUM([1]韵纹!AD104:AI104)*VLOOKUP(SUM([1]韵纹!AJ104:AO104),[1]期望属性!$E$23:$G$38,2,0),0)</f>
-        <v>504</v>
+        <v>270</v>
       </c>
     </row>
     <row r="23" spans="1:18" ht="15" x14ac:dyDescent="0.2">
@@ -6368,7 +6366,7 @@
       </c>
       <c r="K23" s="7" t="str">
         <f>SUM([1]韵纹!AJ105:AO105)&amp;";"&amp;SUM([1]韵纹!AD105:AI105)</f>
-        <v>10;77</v>
+        <v>10;78</v>
       </c>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
@@ -6376,7 +6374,7 @@
       <c r="O23" s="3"/>
       <c r="P23" s="8">
         <f>ROUND(SUM([1]韵纹!AD105:AI105)*VLOOKUP(SUM([1]韵纹!AJ105:AO105),[1]期望属性!$E$23:$G$38,2,0),0)</f>
-        <v>770</v>
+        <v>156</v>
       </c>
     </row>
     <row r="24" spans="1:18" ht="15" x14ac:dyDescent="0.2">
@@ -6411,7 +6409,7 @@
       </c>
       <c r="K24" s="7" t="str">
         <f>SUM([1]韵纹!AJ106:AO106)&amp;";"&amp;SUM([1]韵纹!AD106:AI106)</f>
-        <v>16;45</v>
+        <v>16;116</v>
       </c>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
@@ -6419,14 +6417,14 @@
       <c r="O24" s="3"/>
       <c r="P24" s="8">
         <f>ROUND(SUM([1]韵纹!AD106:AI106)*VLOOKUP(SUM([1]韵纹!AJ106:AO106),[1]期望属性!$E$23:$G$38,2,0),0)</f>
-        <v>540</v>
+        <v>290</v>
       </c>
       <c r="Q24">
         <v>4</v>
       </c>
       <c r="R24">
         <f>SUM(P$3:P24)</f>
-        <v>13387</v>
+        <v>3571</v>
       </c>
     </row>
     <row r="25" spans="1:18" ht="15" x14ac:dyDescent="0.2">
@@ -6468,7 +6466,7 @@
       <c r="O25" s="3"/>
       <c r="P25" s="8">
         <f>ROUND(SUM([1]韵纹!AD107:AI107)*VLOOKUP(SUM([1]韵纹!AJ107:AO107),[1]期望属性!$E$23:$G$38,2,0),0)</f>
-        <v>2070</v>
+        <v>414</v>
       </c>
     </row>
     <row r="26" spans="1:18" ht="15" x14ac:dyDescent="0.2">
@@ -6503,7 +6501,7 @@
       </c>
       <c r="K26" s="7" t="str">
         <f>SUM([1]韵纹!AJ108:AO108)&amp;";"&amp;SUM([1]韵纹!AD108:AI108)</f>
-        <v>25;105</v>
+        <v>25;95</v>
       </c>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
@@ -6511,7 +6509,7 @@
       <c r="O26" s="3"/>
       <c r="P26" s="8">
         <f>ROUND(SUM([1]韵纹!AD108:AI108)*VLOOKUP(SUM([1]韵纹!AJ108:AO108),[1]期望属性!$E$23:$G$38,2,0),0)</f>
-        <v>368</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:18" ht="15" x14ac:dyDescent="0.2">
@@ -6554,7 +6552,7 @@
       <c r="O27" s="3"/>
       <c r="P27" s="8">
         <f>ROUND(SUM([1]韵纹!AD109:AI109)*VLOOKUP(SUM([1]韵纹!AJ109:AO109),[1]期望属性!$E$23:$G$38,2,0),0)</f>
-        <v>670</v>
+        <v>134</v>
       </c>
     </row>
     <row r="28" spans="1:18" ht="15" x14ac:dyDescent="0.2">
@@ -6589,7 +6587,7 @@
       </c>
       <c r="K28" s="7" t="str">
         <f>SUM([1]韵纹!AJ110:AO110)&amp;";"&amp;SUM([1]韵纹!AD110:AI110)</f>
-        <v>16;48</v>
+        <v>16;123</v>
       </c>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
@@ -6597,7 +6595,7 @@
       <c r="O28" s="3"/>
       <c r="P28" s="8">
         <f>ROUND(SUM([1]韵纹!AD110:AI110)*VLOOKUP(SUM([1]韵纹!AJ110:AO110),[1]期望属性!$E$23:$G$38,2,0),0)</f>
-        <v>576</v>
+        <v>308</v>
       </c>
     </row>
     <row r="29" spans="1:18" ht="15" x14ac:dyDescent="0.2">
@@ -6632,7 +6630,7 @@
       </c>
       <c r="K29" s="7" t="str">
         <f>SUM([1]韵纹!AJ111:AO111)&amp;";"&amp;SUM([1]韵纹!AD111:AI111)</f>
-        <v>10;82</v>
+        <v>10;84</v>
       </c>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
@@ -6640,7 +6638,7 @@
       <c r="O29" s="3"/>
       <c r="P29" s="8">
         <f>ROUND(SUM([1]韵纹!AD111:AI111)*VLOOKUP(SUM([1]韵纹!AJ111:AO111),[1]期望属性!$E$23:$G$38,2,0),0)</f>
-        <v>820</v>
+        <v>168</v>
       </c>
     </row>
     <row r="30" spans="1:18" ht="15" x14ac:dyDescent="0.2">
@@ -6675,7 +6673,7 @@
       </c>
       <c r="K30" s="7" t="str">
         <f>SUM([1]韵纹!AJ112:AO112)&amp;";"&amp;SUM([1]韵纹!AD112:AI112)</f>
-        <v>16;51</v>
+        <v>16;131</v>
       </c>
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
@@ -6683,7 +6681,7 @@
       <c r="O30" s="3"/>
       <c r="P30" s="8">
         <f>ROUND(SUM([1]韵纹!AD112:AI112)*VLOOKUP(SUM([1]韵纹!AJ112:AO112),[1]期望属性!$E$23:$G$38,2,0),0)</f>
-        <v>612</v>
+        <v>328</v>
       </c>
     </row>
     <row r="31" spans="1:18" ht="15" x14ac:dyDescent="0.2">
@@ -6726,14 +6724,14 @@
       <c r="O31" s="3"/>
       <c r="P31" s="8">
         <f>ROUND(SUM([1]韵纹!AD113:AI113)*VLOOKUP(SUM([1]韵纹!AJ113:AO113),[1]期望属性!$E$23:$G$38,2,0),0)</f>
-        <v>710</v>
+        <v>142</v>
       </c>
       <c r="Q31">
         <v>5</v>
       </c>
       <c r="R31">
         <f>SUM(P$3:P31)</f>
-        <v>19213</v>
+        <v>5132</v>
       </c>
     </row>
     <row r="32" spans="1:18" ht="15" x14ac:dyDescent="0.2">
@@ -6775,7 +6773,7 @@
       <c r="O32" s="3"/>
       <c r="P32" s="8">
         <f>ROUND(SUM([1]韵纹!AD114:AI114)*VLOOKUP(SUM([1]韵纹!AJ114:AO114),[1]期望属性!$E$23:$G$38,2,0),0)</f>
-        <v>2240</v>
+        <v>448</v>
       </c>
     </row>
     <row r="33" spans="1:18" ht="15" x14ac:dyDescent="0.2">
@@ -6810,7 +6808,7 @@
       </c>
       <c r="K33" s="7" t="str">
         <f>SUM([1]韵纹!AJ115:AO115)&amp;";"&amp;SUM([1]韵纹!AD115:AI115)</f>
-        <v>25;113</v>
+        <v>25;101</v>
       </c>
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
@@ -6818,7 +6816,7 @@
       <c r="O33" s="3"/>
       <c r="P33" s="8">
         <f>ROUND(SUM([1]韵纹!AD115:AI115)*VLOOKUP(SUM([1]韵纹!AJ115:AO115),[1]期望属性!$E$23:$G$38,2,0),0)</f>
-        <v>396</v>
+        <v>71</v>
       </c>
     </row>
     <row r="34" spans="1:18" ht="15" x14ac:dyDescent="0.2">
@@ -6861,7 +6859,7 @@
       <c r="O34" s="3"/>
       <c r="P34" s="8">
         <f>ROUND(SUM([1]韵纹!AD116:AI116)*VLOOKUP(SUM([1]韵纹!AJ116:AO116),[1]期望属性!$E$23:$G$38,2,0),0)</f>
-        <v>750</v>
+        <v>150</v>
       </c>
     </row>
     <row r="35" spans="1:18" ht="15" x14ac:dyDescent="0.2">
@@ -6896,7 +6894,7 @@
       </c>
       <c r="K35" s="7" t="str">
         <f>SUM([1]韵纹!AJ117:AO117)&amp;";"&amp;SUM([1]韵纹!AD117:AI117)</f>
-        <v>16;54</v>
+        <v>16;139</v>
       </c>
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
@@ -6904,7 +6902,7 @@
       <c r="O35" s="3"/>
       <c r="P35" s="8">
         <f>ROUND(SUM([1]韵纹!AD117:AI117)*VLOOKUP(SUM([1]韵纹!AJ117:AO117),[1]期望属性!$E$23:$G$38,2,0),0)</f>
-        <v>648</v>
+        <v>348</v>
       </c>
     </row>
     <row r="36" spans="1:18" ht="15" x14ac:dyDescent="0.2">
@@ -6939,7 +6937,7 @@
       </c>
       <c r="K36" s="7" t="str">
         <f>SUM([1]韵纹!AJ118:AO118)&amp;";"&amp;SUM([1]韵纹!AD118:AI118)</f>
-        <v>10;88</v>
+        <v>10;90</v>
       </c>
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
@@ -6947,7 +6945,7 @@
       <c r="O36" s="3"/>
       <c r="P36" s="8">
         <f>ROUND(SUM([1]韵纹!AD118:AI118)*VLOOKUP(SUM([1]韵纹!AJ118:AO118),[1]期望属性!$E$23:$G$38,2,0),0)</f>
-        <v>880</v>
+        <v>180</v>
       </c>
     </row>
     <row r="37" spans="1:18" ht="15" x14ac:dyDescent="0.2">
@@ -6982,7 +6980,7 @@
       </c>
       <c r="K37" s="7" t="str">
         <f>SUM([1]韵纹!AJ119:AO119)&amp;";"&amp;SUM([1]韵纹!AD119:AI119)</f>
-        <v>16;57</v>
+        <v>16;147</v>
       </c>
       <c r="L37" s="3"/>
       <c r="M37" s="3"/>
@@ -6990,7 +6988,7 @@
       <c r="O37" s="3"/>
       <c r="P37" s="8">
         <f>ROUND(SUM([1]韵纹!AD119:AI119)*VLOOKUP(SUM([1]韵纹!AJ119:AO119),[1]期望属性!$E$23:$G$38,2,0),0)</f>
-        <v>684</v>
+        <v>368</v>
       </c>
     </row>
     <row r="38" spans="1:18" ht="15" x14ac:dyDescent="0.2">
@@ -7033,14 +7031,14 @@
       <c r="O38" s="3"/>
       <c r="P38" s="8">
         <f>ROUND(SUM([1]韵纹!AD120:AI120)*VLOOKUP(SUM([1]韵纹!AJ120:AO120),[1]期望属性!$E$23:$G$38,2,0),0)</f>
-        <v>795</v>
+        <v>159</v>
       </c>
       <c r="Q38">
         <v>6</v>
       </c>
       <c r="R38">
         <f>SUM(P$3:P38)</f>
-        <v>25606</v>
+        <v>6856</v>
       </c>
     </row>
     <row r="39" spans="1:18" ht="15" x14ac:dyDescent="0.2">
@@ -7082,7 +7080,7 @@
       <c r="O39" s="3"/>
       <c r="P39" s="8">
         <f>ROUND(SUM([1]韵纹!AD121:AI121)*VLOOKUP(SUM([1]韵纹!AJ121:AO121),[1]期望属性!$E$23:$G$38,2,0),0)</f>
-        <v>2415</v>
+        <v>483</v>
       </c>
     </row>
     <row r="40" spans="1:18" ht="15" x14ac:dyDescent="0.2">
@@ -7117,7 +7115,7 @@
       </c>
       <c r="K40" s="7" t="str">
         <f>SUM([1]韵纹!AJ122:AO122)&amp;";"&amp;SUM([1]韵纹!AD122:AI122)</f>
-        <v>25;120</v>
+        <v>25;108</v>
       </c>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
@@ -7125,7 +7123,7 @@
       <c r="O40" s="3"/>
       <c r="P40" s="8">
         <f>ROUND(SUM([1]韵纹!AD122:AI122)*VLOOKUP(SUM([1]韵纹!AJ122:AO122),[1]期望属性!$E$23:$G$38,2,0),0)</f>
-        <v>420</v>
+        <v>76</v>
       </c>
     </row>
     <row r="41" spans="1:18" ht="15" x14ac:dyDescent="0.2">
@@ -7168,7 +7166,7 @@
       <c r="O41" s="3"/>
       <c r="P41" s="8">
         <f>ROUND(SUM([1]韵纹!AD123:AI123)*VLOOKUP(SUM([1]韵纹!AJ123:AO123),[1]期望属性!$E$23:$G$38,2,0),0)</f>
-        <v>835</v>
+        <v>167</v>
       </c>
     </row>
     <row r="42" spans="1:18" ht="15" x14ac:dyDescent="0.2">
@@ -7203,7 +7201,7 @@
       </c>
       <c r="K42" s="7" t="str">
         <f>SUM([1]韵纹!AJ124:AO124)&amp;";"&amp;SUM([1]韵纹!AD124:AI124)</f>
-        <v>16;60</v>
+        <v>16;154</v>
       </c>
       <c r="L42" s="3"/>
       <c r="M42" s="3"/>
@@ -7211,7 +7209,7 @@
       <c r="O42" s="3"/>
       <c r="P42" s="8">
         <f>ROUND(SUM([1]韵纹!AD124:AI124)*VLOOKUP(SUM([1]韵纹!AJ124:AO124),[1]期望属性!$E$23:$G$38,2,0),0)</f>
-        <v>720</v>
+        <v>385</v>
       </c>
     </row>
     <row r="43" spans="1:18" ht="15" x14ac:dyDescent="0.2">
@@ -7246,7 +7244,7 @@
       </c>
       <c r="K43" s="7" t="str">
         <f>SUM([1]韵纹!AJ125:AO125)&amp;";"&amp;SUM([1]韵纹!AD125:AI125)</f>
-        <v>10;94</v>
+        <v>10;97</v>
       </c>
       <c r="L43" s="3"/>
       <c r="M43" s="3"/>
@@ -7254,7 +7252,7 @@
       <c r="O43" s="3"/>
       <c r="P43" s="8">
         <f>ROUND(SUM([1]韵纹!AD125:AI125)*VLOOKUP(SUM([1]韵纹!AJ125:AO125),[1]期望属性!$E$23:$G$38,2,0),0)</f>
-        <v>940</v>
+        <v>194</v>
       </c>
     </row>
     <row r="44" spans="1:18" ht="15" x14ac:dyDescent="0.2">
@@ -7289,7 +7287,7 @@
       </c>
       <c r="K44" s="7" t="str">
         <f>SUM([1]韵纹!AJ126:AO126)&amp;";"&amp;SUM([1]韵纹!AD126:AI126)</f>
-        <v>16;63</v>
+        <v>16;162</v>
       </c>
       <c r="L44" s="3"/>
       <c r="M44" s="3"/>
@@ -7297,7 +7295,7 @@
       <c r="O44" s="3"/>
       <c r="P44" s="8">
         <f>ROUND(SUM([1]韵纹!AD126:AI126)*VLOOKUP(SUM([1]韵纹!AJ126:AO126),[1]期望属性!$E$23:$G$38,2,0),0)</f>
-        <v>756</v>
+        <v>405</v>
       </c>
     </row>
     <row r="45" spans="1:18" ht="15" x14ac:dyDescent="0.2">
@@ -7340,7 +7338,7 @@
       <c r="O45" s="3"/>
       <c r="P45" s="8">
         <f>ROUND(SUM([1]韵纹!AD127:AI127)*VLOOKUP(SUM([1]韵纹!AJ127:AO127),[1]期望属性!$E$23:$G$38,2,0),0)</f>
-        <v>880</v>
+        <v>176</v>
       </c>
     </row>
     <row r="46" spans="1:18" ht="15" x14ac:dyDescent="0.2">
@@ -7375,7 +7373,7 @@
       </c>
       <c r="K46" s="7" t="str">
         <f>SUM([1]韵纹!AJ128:AO128)&amp;";"&amp;SUM([1]韵纹!AD128:AI128)</f>
-        <v>25;128</v>
+        <v>25;115</v>
       </c>
       <c r="L46" s="3"/>
       <c r="M46" s="3"/>
@@ -7383,14 +7381,14 @@
       <c r="O46" s="3"/>
       <c r="P46" s="8">
         <f>ROUND(SUM([1]韵纹!AD128:AI128)*VLOOKUP(SUM([1]韵纹!AJ128:AO128),[1]期望属性!$E$23:$G$38,2,0),0)</f>
-        <v>448</v>
+        <v>81</v>
       </c>
       <c r="Q46">
         <v>7</v>
       </c>
       <c r="R46">
         <f>SUM(P$3:P46)</f>
-        <v>33020</v>
+        <v>8823</v>
       </c>
     </row>
     <row r="47" spans="1:18" ht="15" x14ac:dyDescent="0.2">
@@ -7432,7 +7430,7 @@
       <c r="O47" s="3"/>
       <c r="P47" s="8">
         <f>ROUND(SUM([1]韵纹!AD129:AI129)*VLOOKUP(SUM([1]韵纹!AJ129:AO129),[1]期望属性!$E$23:$G$38,2,0),0)</f>
-        <v>2585</v>
+        <v>517</v>
       </c>
     </row>
     <row r="48" spans="1:18" ht="15" x14ac:dyDescent="0.2">
@@ -7467,7 +7465,7 @@
       </c>
       <c r="K48" s="7" t="str">
         <f>SUM([1]韵纹!AJ130:AO130)&amp;";"&amp;SUM([1]韵纹!AD130:AI130)</f>
-        <v>25;135</v>
+        <v>25;122</v>
       </c>
       <c r="L48" s="3"/>
       <c r="M48" s="3"/>
@@ -7475,7 +7473,7 @@
       <c r="O48" s="3"/>
       <c r="P48" s="8">
         <f>ROUND(SUM([1]韵纹!AD130:AI130)*VLOOKUP(SUM([1]韵纹!AJ130:AO130),[1]期望属性!$E$23:$G$38,2,0),0)</f>
-        <v>473</v>
+        <v>85</v>
       </c>
     </row>
     <row r="49" spans="1:18" ht="15" x14ac:dyDescent="0.2">
@@ -7518,7 +7516,7 @@
       <c r="O49" s="3"/>
       <c r="P49" s="8">
         <f>ROUND(SUM([1]韵纹!AD131:AI131)*VLOOKUP(SUM([1]韵纹!AJ131:AO131),[1]期望属性!$E$23:$G$38,2,0),0)</f>
-        <v>920</v>
+        <v>184</v>
       </c>
     </row>
     <row r="50" spans="1:18" ht="15" x14ac:dyDescent="0.2">
@@ -7553,7 +7551,7 @@
       </c>
       <c r="K50" s="7" t="str">
         <f>SUM([1]韵纹!AJ132:AO132)&amp;";"&amp;SUM([1]韵纹!AD132:AI132)</f>
-        <v>16;65</v>
+        <v>16;170</v>
       </c>
       <c r="L50" s="3"/>
       <c r="M50" s="3"/>
@@ -7561,7 +7559,7 @@
       <c r="O50" s="3"/>
       <c r="P50" s="8">
         <f>ROUND(SUM([1]韵纹!AD132:AI132)*VLOOKUP(SUM([1]韵纹!AJ132:AO132),[1]期望属性!$E$23:$G$38,2,0),0)</f>
-        <v>780</v>
+        <v>425</v>
       </c>
     </row>
     <row r="51" spans="1:18" ht="15" x14ac:dyDescent="0.2">
@@ -7596,7 +7594,7 @@
       </c>
       <c r="K51" s="7" t="str">
         <f>SUM([1]韵纹!AJ133:AO133)&amp;";"&amp;SUM([1]韵纹!AD133:AI133)</f>
-        <v>10;100</v>
+        <v>10;103</v>
       </c>
       <c r="L51" s="3"/>
       <c r="M51" s="3"/>
@@ -7604,7 +7602,7 @@
       <c r="O51" s="3"/>
       <c r="P51" s="8">
         <f>ROUND(SUM([1]韵纹!AD133:AI133)*VLOOKUP(SUM([1]韵纹!AJ133:AO133),[1]期望属性!$E$23:$G$38,2,0),0)</f>
-        <v>1000</v>
+        <v>206</v>
       </c>
     </row>
     <row r="52" spans="1:18" ht="15" x14ac:dyDescent="0.2">
@@ -7639,7 +7637,7 @@
       </c>
       <c r="K52" s="7" t="str">
         <f>SUM([1]韵纹!AJ134:AO134)&amp;";"&amp;SUM([1]韵纹!AD134:AI134)</f>
-        <v>16;68</v>
+        <v>16;177</v>
       </c>
       <c r="L52" s="3"/>
       <c r="M52" s="3"/>
@@ -7647,7 +7645,7 @@
       <c r="O52" s="3"/>
       <c r="P52" s="8">
         <f>ROUND(SUM([1]韵纹!AD134:AI134)*VLOOKUP(SUM([1]韵纹!AJ134:AO134),[1]期望属性!$E$23:$G$38,2,0),0)</f>
-        <v>816</v>
+        <v>443</v>
       </c>
     </row>
     <row r="53" spans="1:18" ht="15" x14ac:dyDescent="0.2">
@@ -7690,7 +7688,7 @@
       <c r="O53" s="3"/>
       <c r="P53" s="8">
         <f>ROUND(SUM([1]韵纹!AD135:AI135)*VLOOKUP(SUM([1]韵纹!AJ135:AO135),[1]期望属性!$E$23:$G$38,2,0),0)</f>
-        <v>960</v>
+        <v>192</v>
       </c>
     </row>
     <row r="54" spans="1:18" ht="15" x14ac:dyDescent="0.2">
@@ -7725,7 +7723,7 @@
       </c>
       <c r="K54" s="7" t="str">
         <f>SUM([1]韵纹!AJ136:AO136)&amp;";"&amp;SUM([1]韵纹!AD136:AI136)</f>
-        <v>25;143</v>
+        <v>25;128</v>
       </c>
       <c r="L54" s="3"/>
       <c r="M54" s="3"/>
@@ -7733,7 +7731,7 @@
       <c r="O54" s="3"/>
       <c r="P54" s="8">
         <f>ROUND(SUM([1]韵纹!AD136:AI136)*VLOOKUP(SUM([1]韵纹!AJ136:AO136),[1]期望属性!$E$23:$G$38,2,0),0)</f>
-        <v>501</v>
+        <v>90</v>
       </c>
     </row>
     <row r="55" spans="1:18" ht="15" x14ac:dyDescent="0.2">
@@ -7768,7 +7766,7 @@
       </c>
       <c r="K55" s="7" t="str">
         <f>SUM([1]韵纹!AJ137:AO137)&amp;";"&amp;SUM([1]韵纹!AD137:AI137)</f>
-        <v>16;71</v>
+        <v>16;185</v>
       </c>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
@@ -7776,14 +7774,14 @@
       <c r="O55" s="3"/>
       <c r="P55" s="8">
         <f>ROUND(SUM([1]韵纹!AD137:AI137)*VLOOKUP(SUM([1]韵纹!AJ137:AO137),[1]期望属性!$E$23:$G$38,2,0),0)</f>
-        <v>852</v>
+        <v>463</v>
       </c>
       <c r="Q55">
         <v>8</v>
       </c>
       <c r="R55">
         <f>SUM(P$3:P55)</f>
-        <v>41907</v>
+        <v>11428</v>
       </c>
     </row>
     <row r="56" spans="1:18" ht="15" x14ac:dyDescent="0.2">
@@ -7825,7 +7823,7 @@
       <c r="O56" s="3"/>
       <c r="P56" s="8">
         <f>ROUND(SUM([1]韵纹!AD138:AI138)*VLOOKUP(SUM([1]韵纹!AJ138:AO138),[1]期望属性!$E$23:$G$38,2,0),0)</f>
-        <v>2760</v>
+        <v>552</v>
       </c>
     </row>
     <row r="57" spans="1:18" ht="15" x14ac:dyDescent="0.2">
@@ -7860,7 +7858,7 @@
       </c>
       <c r="K57" s="7" t="str">
         <f>SUM([1]韵纹!AJ139:AO139)&amp;";"&amp;SUM([1]韵纹!AD139:AI139)</f>
-        <v>25;150</v>
+        <v>25;135</v>
       </c>
       <c r="L57" s="3"/>
       <c r="M57" s="3"/>
@@ -7868,7 +7866,7 @@
       <c r="O57" s="3"/>
       <c r="P57" s="8">
         <f>ROUND(SUM([1]韵纹!AD139:AI139)*VLOOKUP(SUM([1]韵纹!AJ139:AO139),[1]期望属性!$E$23:$G$38,2,0),0)</f>
-        <v>525</v>
+        <v>95</v>
       </c>
     </row>
     <row r="58" spans="1:18" ht="15" x14ac:dyDescent="0.2">
@@ -7911,7 +7909,7 @@
       <c r="O58" s="3"/>
       <c r="P58" s="8">
         <f>ROUND(SUM([1]韵纹!AD140:AI140)*VLOOKUP(SUM([1]韵纹!AJ140:AO140),[1]期望属性!$E$23:$G$38,2,0),0)</f>
-        <v>1005</v>
+        <v>201</v>
       </c>
     </row>
     <row r="59" spans="1:18" ht="15" x14ac:dyDescent="0.2">
@@ -7946,7 +7944,7 @@
       </c>
       <c r="K59" s="7" t="str">
         <f>SUM([1]韵纹!AJ141:AO141)&amp;";"&amp;SUM([1]韵纹!AD141:AI141)</f>
-        <v>16;74</v>
+        <v>16;193</v>
       </c>
       <c r="L59" s="3"/>
       <c r="M59" s="3"/>
@@ -7954,7 +7952,7 @@
       <c r="O59" s="3"/>
       <c r="P59" s="8">
         <f>ROUND(SUM([1]韵纹!AD141:AI141)*VLOOKUP(SUM([1]韵纹!AJ141:AO141),[1]期望属性!$E$23:$G$38,2,0),0)</f>
-        <v>888</v>
+        <v>483</v>
       </c>
     </row>
     <row r="60" spans="1:18" ht="15" x14ac:dyDescent="0.2">
@@ -7989,7 +7987,7 @@
       </c>
       <c r="K60" s="7" t="str">
         <f>SUM([1]韵纹!AJ142:AO142)&amp;";"&amp;SUM([1]韵纹!AD142:AI142)</f>
-        <v>10;106</v>
+        <v>10;109</v>
       </c>
       <c r="L60" s="3"/>
       <c r="M60" s="3"/>
@@ -7997,7 +7995,7 @@
       <c r="O60" s="3"/>
       <c r="P60" s="8">
         <f>ROUND(SUM([1]韵纹!AD142:AI142)*VLOOKUP(SUM([1]韵纹!AJ142:AO142),[1]期望属性!$E$23:$G$38,2,0),0)</f>
-        <v>1060</v>
+        <v>218</v>
       </c>
     </row>
     <row r="61" spans="1:18" ht="15" x14ac:dyDescent="0.2">
@@ -8032,7 +8030,7 @@
       </c>
       <c r="K61" s="7" t="str">
         <f>SUM([1]韵纹!AJ143:AO143)&amp;";"&amp;SUM([1]韵纹!AD143:AI143)</f>
-        <v>16;77</v>
+        <v>16;201</v>
       </c>
       <c r="L61" s="3"/>
       <c r="M61" s="3"/>
@@ -8040,7 +8038,7 @@
       <c r="O61" s="3"/>
       <c r="P61" s="8">
         <f>ROUND(SUM([1]韵纹!AD143:AI143)*VLOOKUP(SUM([1]韵纹!AJ143:AO143),[1]期望属性!$E$23:$G$38,2,0),0)</f>
-        <v>924</v>
+        <v>503</v>
       </c>
     </row>
     <row r="62" spans="1:18" ht="15" x14ac:dyDescent="0.2">
@@ -8083,7 +8081,7 @@
       <c r="O62" s="3"/>
       <c r="P62" s="8">
         <f>ROUND(SUM([1]韵纹!AD144:AI144)*VLOOKUP(SUM([1]韵纹!AJ144:AO144),[1]期望属性!$E$23:$G$38,2,0),0)</f>
-        <v>2930</v>
+        <v>586</v>
       </c>
     </row>
     <row r="63" spans="1:18" ht="15" x14ac:dyDescent="0.2">
@@ -8118,7 +8116,7 @@
       </c>
       <c r="K63" s="7" t="str">
         <f>SUM([1]韵纹!AJ145:AO145)&amp;";"&amp;SUM([1]韵纹!AD145:AI145)</f>
-        <v>25;158</v>
+        <v>25;142</v>
       </c>
       <c r="L63" s="3"/>
       <c r="M63" s="3"/>
@@ -8126,7 +8124,7 @@
       <c r="O63" s="3"/>
       <c r="P63" s="8">
         <f>ROUND(SUM([1]韵纹!AD145:AI145)*VLOOKUP(SUM([1]韵纹!AJ145:AO145),[1]期望属性!$E$23:$G$38,2,0),0)</f>
-        <v>553</v>
+        <v>99</v>
       </c>
     </row>
     <row r="64" spans="1:18" ht="15" x14ac:dyDescent="0.2">
@@ -8161,7 +8159,7 @@
       </c>
       <c r="K64" s="7" t="str">
         <f>SUM([1]韵纹!AJ146:AO146)&amp;";"&amp;SUM([1]韵纹!AD146:AI146)</f>
-        <v>16;80</v>
+        <v>16;208</v>
       </c>
       <c r="L64" s="3"/>
       <c r="M64" s="3"/>
@@ -8169,7 +8167,7 @@
       <c r="O64" s="3"/>
       <c r="P64" s="8">
         <f>ROUND(SUM([1]韵纹!AD146:AI146)*VLOOKUP(SUM([1]韵纹!AJ146:AO146),[1]期望属性!$E$23:$G$38,2,0),0)</f>
-        <v>960</v>
+        <v>520</v>
       </c>
     </row>
     <row r="65" spans="1:18" ht="15" x14ac:dyDescent="0.2">
@@ -8204,7 +8202,7 @@
       </c>
       <c r="K65" s="7" t="str">
         <f>SUM([1]韵纹!AJ147:AO147)&amp;";"&amp;SUM([1]韵纹!AD147:AI147)</f>
-        <v>10;112</v>
+        <v>10;115</v>
       </c>
       <c r="L65" s="3"/>
       <c r="M65" s="3"/>
@@ -8212,14 +8210,14 @@
       <c r="O65" s="3"/>
       <c r="P65" s="8">
         <f>ROUND(SUM([1]韵纹!AD147:AI147)*VLOOKUP(SUM([1]韵纹!AJ147:AO147),[1]期望属性!$E$23:$G$38,2,0),0)</f>
-        <v>1120</v>
+        <v>230</v>
       </c>
       <c r="Q65">
         <v>9</v>
       </c>
       <c r="R65">
         <f>SUM(P$3:P65)</f>
-        <v>54632</v>
+        <v>14915</v>
       </c>
     </row>
     <row r="66" spans="1:18" ht="15" x14ac:dyDescent="0.2">
@@ -8261,7 +8259,7 @@
       <c r="O66" s="3"/>
       <c r="P66" s="8">
         <f>ROUND(SUM([1]韵纹!AD148:AI148)*VLOOKUP(SUM([1]韵纹!AJ148:AO148),[1]期望属性!$E$23:$G$38,2,0),0)</f>
-        <v>3105</v>
+        <v>621</v>
       </c>
     </row>
     <row r="67" spans="1:18" ht="15" x14ac:dyDescent="0.2">
@@ -8296,7 +8294,7 @@
       </c>
       <c r="K67" s="7" t="str">
         <f>SUM([1]韵纹!AJ149:AO149)&amp;";"&amp;SUM([1]韵纹!AD149:AI149)</f>
-        <v>25;165</v>
+        <v>25;149</v>
       </c>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
@@ -8304,7 +8302,7 @@
       <c r="O67" s="3"/>
       <c r="P67" s="8">
         <f>ROUND(SUM([1]韵纹!AD149:AI149)*VLOOKUP(SUM([1]韵纹!AJ149:AO149),[1]期望属性!$E$23:$G$38,2,0),0)</f>
-        <v>578</v>
+        <v>104</v>
       </c>
     </row>
     <row r="68" spans="1:18" ht="15" x14ac:dyDescent="0.2">
@@ -8347,7 +8345,7 @@
       <c r="O68" s="3"/>
       <c r="P68" s="8">
         <f>ROUND(SUM([1]韵纹!AD150:AI150)*VLOOKUP(SUM([1]韵纹!AJ150:AO150),[1]期望属性!$E$23:$G$38,2,0),0)</f>
-        <v>1045</v>
+        <v>209</v>
       </c>
     </row>
     <row r="69" spans="1:18" ht="15" x14ac:dyDescent="0.2">
@@ -8382,7 +8380,7 @@
       </c>
       <c r="K69" s="7" t="str">
         <f>SUM([1]韵纹!AJ151:AO151)&amp;";"&amp;SUM([1]韵纹!AD151:AI151)</f>
-        <v>16;83</v>
+        <v>16;216</v>
       </c>
       <c r="L69" s="3"/>
       <c r="M69" s="3"/>
@@ -8390,7 +8388,7 @@
       <c r="O69" s="3"/>
       <c r="P69" s="8">
         <f>ROUND(SUM([1]韵纹!AD151:AI151)*VLOOKUP(SUM([1]韵纹!AJ151:AO151),[1]期望属性!$E$23:$G$38,2,0),0)</f>
-        <v>996</v>
+        <v>540</v>
       </c>
     </row>
     <row r="70" spans="1:18" ht="15" x14ac:dyDescent="0.2">
@@ -8425,7 +8423,7 @@
       </c>
       <c r="K70" s="7" t="str">
         <f>SUM([1]韵纹!AJ152:AO152)&amp;";"&amp;SUM([1]韵纹!AD152:AI152)</f>
-        <v>10;118</v>
+        <v>10;121</v>
       </c>
       <c r="L70" s="3"/>
       <c r="M70" s="3"/>
@@ -8433,7 +8431,7 @@
       <c r="O70" s="3"/>
       <c r="P70" s="8">
         <f>ROUND(SUM([1]韵纹!AD152:AI152)*VLOOKUP(SUM([1]韵纹!AJ152:AO152),[1]期望属性!$E$23:$G$38,2,0),0)</f>
-        <v>1180</v>
+        <v>242</v>
       </c>
     </row>
     <row r="71" spans="1:18" ht="15" x14ac:dyDescent="0.2">
@@ -8468,7 +8466,7 @@
       </c>
       <c r="K71" s="7" t="str">
         <f>SUM([1]韵纹!AJ153:AO153)&amp;";"&amp;SUM([1]韵纹!AD153:AI153)</f>
-        <v>16;86</v>
+        <v>16;224</v>
       </c>
       <c r="L71" s="3"/>
       <c r="M71" s="3"/>
@@ -8476,7 +8474,7 @@
       <c r="O71" s="3"/>
       <c r="P71" s="8">
         <f>ROUND(SUM([1]韵纹!AD153:AI153)*VLOOKUP(SUM([1]韵纹!AJ153:AO153),[1]期望属性!$E$23:$G$38,2,0),0)</f>
-        <v>1032</v>
+        <v>560</v>
       </c>
     </row>
     <row r="72" spans="1:18" ht="15" x14ac:dyDescent="0.2">
@@ -8519,7 +8517,7 @@
       <c r="O72" s="3"/>
       <c r="P72" s="8">
         <f>ROUND(SUM([1]韵纹!AD154:AI154)*VLOOKUP(SUM([1]韵纹!AJ154:AO154),[1]期望属性!$E$23:$G$38,2,0),0)</f>
-        <v>1085</v>
+        <v>217</v>
       </c>
     </row>
     <row r="73" spans="1:18" ht="15" x14ac:dyDescent="0.2">
@@ -8554,7 +8552,7 @@
       </c>
       <c r="K73" s="7" t="str">
         <f>SUM([1]韵纹!AJ155:AO155)&amp;";"&amp;SUM([1]韵纹!AD155:AI155)</f>
-        <v>25;173</v>
+        <v>25;155</v>
       </c>
       <c r="L73" s="3"/>
       <c r="M73" s="3"/>
@@ -8562,7 +8560,7 @@
       <c r="O73" s="3"/>
       <c r="P73" s="8">
         <f>ROUND(SUM([1]韵纹!AD155:AI155)*VLOOKUP(SUM([1]韵纹!AJ155:AO155),[1]期望属性!$E$23:$G$38,2,0),0)</f>
-        <v>606</v>
+        <v>109</v>
       </c>
     </row>
     <row r="74" spans="1:18" ht="15" x14ac:dyDescent="0.2">
@@ -8597,7 +8595,7 @@
       </c>
       <c r="K74" s="7" t="str">
         <f>SUM([1]韵纹!AJ156:AO156)&amp;";"&amp;SUM([1]韵纹!AD156:AI156)</f>
-        <v>16;89</v>
+        <v>16;231</v>
       </c>
       <c r="L74" s="3"/>
       <c r="M74" s="3"/>
@@ -8605,7 +8603,7 @@
       <c r="O74" s="3"/>
       <c r="P74" s="8">
         <f>ROUND(SUM([1]韵纹!AD156:AI156)*VLOOKUP(SUM([1]韵纹!AJ156:AO156),[1]期望属性!$E$23:$G$38,2,0),0)</f>
-        <v>1068</v>
+        <v>578</v>
       </c>
     </row>
     <row r="75" spans="1:18" ht="15" x14ac:dyDescent="0.2">
@@ -8640,7 +8638,7 @@
       </c>
       <c r="K75" s="7" t="str">
         <f>SUM([1]韵纹!AJ157:AO157)&amp;";"&amp;SUM([1]韵纹!AD157:AI157)</f>
-        <v>10;124</v>
+        <v>10;127</v>
       </c>
       <c r="L75" s="3"/>
       <c r="M75" s="3"/>
@@ -8648,7 +8646,7 @@
       <c r="O75" s="3"/>
       <c r="P75" s="8">
         <f>ROUND(SUM([1]韵纹!AD157:AI157)*VLOOKUP(SUM([1]韵纹!AJ157:AO157),[1]期望属性!$E$23:$G$38,2,0),0)</f>
-        <v>1240</v>
+        <v>254</v>
       </c>
     </row>
     <row r="76" spans="1:18" ht="15" x14ac:dyDescent="0.2">
@@ -8691,7 +8689,7 @@
       <c r="O76" s="3"/>
       <c r="P76" s="8">
         <f>ROUND(SUM([1]韵纹!AD158:AI158)*VLOOKUP(SUM([1]韵纹!AJ158:AO158),[1]期望属性!$E$23:$G$38,2,0),0)</f>
-        <v>1130</v>
+        <v>226</v>
       </c>
     </row>
     <row r="77" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -8734,14 +8732,14 @@
       <c r="O77" s="10"/>
       <c r="P77" s="11">
         <f>ROUND(SUM([1]韵纹!AD159:AI159)*VLOOKUP(SUM([1]韵纹!AJ159:AO159),[1]期望属性!$E$23:$G$38,2,0),0)</f>
-        <v>3275</v>
+        <v>655</v>
       </c>
       <c r="Q77">
         <v>10</v>
       </c>
       <c r="R77">
         <f>SUM(P$3:P77)</f>
-        <v>70972</v>
+        <v>19230</v>
       </c>
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.15">
@@ -8810,7 +8808,7 @@
       </c>
       <c r="B2">
         <f>SUMIF(工作表1!E:E,穴道阶战力!A2,工作表1!L:L)</f>
-        <v>2093</v>
+        <v>537</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
@@ -8819,11 +8817,11 @@
       </c>
       <c r="B3">
         <f>SUMIF(工作表1!E:E,穴道阶战力!A3,工作表1!L:L)</f>
-        <v>2382</v>
+        <v>606</v>
       </c>
       <c r="C3">
         <f>SUM($B$2:B2)</f>
-        <v>2093</v>
+        <v>537</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
@@ -8832,11 +8830,11 @@
       </c>
       <c r="B4">
         <f>SUMIF(工作表1!E:E,穴道阶战力!A4,工作表1!L:L)</f>
-        <v>4235</v>
+        <v>1146</v>
       </c>
       <c r="C4">
         <f>SUM($B$2:B3)</f>
-        <v>4475</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
@@ -8845,11 +8843,11 @@
       </c>
       <c r="B5">
         <f>SUMIF(工作表1!E:E,穴道阶战力!A5,工作表1!L:L)</f>
-        <v>4677</v>
+        <v>1282</v>
       </c>
       <c r="C5">
         <f>SUM($B$2:B4)</f>
-        <v>8710</v>
+        <v>2289</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
@@ -8858,11 +8856,11 @@
       </c>
       <c r="B6">
         <f>SUMIF(工作表1!E:E,穴道阶战力!A6,工作表1!L:L)</f>
-        <v>5826</v>
+        <v>1561</v>
       </c>
       <c r="C6">
         <f>SUM($B$2:B5)</f>
-        <v>13387</v>
+        <v>3571</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
@@ -8871,11 +8869,11 @@
       </c>
       <c r="B7">
         <f>SUMIF(工作表1!E:E,穴道阶战力!A7,工作表1!L:L)</f>
-        <v>6393</v>
+        <v>1724</v>
       </c>
       <c r="C7">
         <f>SUM($B$2:B6)</f>
-        <v>19213</v>
+        <v>5132</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
@@ -8884,11 +8882,11 @@
       </c>
       <c r="B8">
         <f>SUMIF(工作表1!E:E,穴道阶战力!A8,工作表1!L:L)</f>
-        <v>7414</v>
+        <v>1967</v>
       </c>
       <c r="C8">
         <f>SUM($B$2:B7)</f>
-        <v>25606</v>
+        <v>6856</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
@@ -8897,11 +8895,11 @@
       </c>
       <c r="B9">
         <f>SUMIF(工作表1!E:E,穴道阶战力!A9,工作表1!L:L)</f>
-        <v>8887</v>
+        <v>2605</v>
       </c>
       <c r="C9">
         <f>SUM($B$2:B8)</f>
-        <v>33020</v>
+        <v>8823</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
@@ -8910,11 +8908,11 @@
       </c>
       <c r="B10">
         <f>SUMIF(工作表1!E:E,穴道阶战力!A10,工作表1!L:L)</f>
-        <v>12725</v>
+        <v>3487</v>
       </c>
       <c r="C10">
         <f>SUM($B$2:B9)</f>
-        <v>41907</v>
+        <v>11428</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
@@ -8923,11 +8921,11 @@
       </c>
       <c r="B11">
         <f>SUMIF(工作表1!E:E,穴道阶战力!A11,工作表1!L:L)</f>
-        <v>16340</v>
+        <v>4315</v>
       </c>
       <c r="C11">
         <f>SUM($B$2:B10)</f>
-        <v>54632</v>
+        <v>14915</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
@@ -8936,7 +8934,7 @@
       </c>
       <c r="C12">
         <f>SUM($B$2:B11)</f>
-        <v>70972</v>
+        <v>19230</v>
       </c>
     </row>
   </sheetData>
@@ -8963,26 +8961,26 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="D1" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="E1" t="s">
         <v>91</v>
       </c>
       <c r="F1" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="H1" s="12"/>
       <c r="I1" s="12"/>
       <c r="J1" s="12"/>
       <c r="K1" s="12"/>
       <c r="L1" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -9121,7 +9119,7 @@
         <v>7</v>
       </c>
       <c r="G6" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="L6">
         <v>250</v>
